--- a/ADM.xlsx
+++ b/ADM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC810DA7-1EFB-4977-9F4C-64BDBBBD03F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972983C1-B23D-4F58-AF4D-F1A92CB9C9E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{88D7A76E-B682-44DF-ACC5-038F17FA34CD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" activeTab="1" xr2:uid="{88D7A76E-B682-44DF-ACC5-038F17FA34CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -190,7 +190,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,14 +199,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -220,6 +218,20 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -241,20 +253,21 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -593,34 +606,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15BC052E-E960-4AEF-8557-14D58630B708}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B11"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" customWidth="1"/>
-    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="2">
         <v>51.28</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H3" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I3" s="3">
@@ -630,11 +644,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="3">
@@ -642,11 +656,11 @@
         <v>24539.198905600002</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I5" s="3">
@@ -657,8 +671,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H6" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I6" s="3">
@@ -669,17 +683,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I7" s="3">
@@ -687,23 +701,23 @@
         <v>25989.198905600002</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
         <v>40</v>
       </c>
     </row>
@@ -716,25 +730,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C87BE3-32BF-435C-A3A3-E2AEC9C31F4D}">
   <dimension ref="A1:V176"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I25" sqref="G25:I29"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
@@ -760,8 +775,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C3" s="3"/>
@@ -778,8 +793,8 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C4" s="3"/>
@@ -796,8 +811,8 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C5" s="3"/>
@@ -814,8 +829,8 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C6" s="3"/>
@@ -843,7 +858,7 @@
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
@@ -872,8 +887,8 @@
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="3"/>
@@ -901,8 +916,8 @@
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="3">
@@ -950,8 +965,8 @@
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="3"/>
@@ -979,8 +994,8 @@
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="3"/>
@@ -1008,8 +1023,8 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C12" s="3">
@@ -1057,8 +1072,8 @@
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="3"/>
@@ -1086,8 +1101,8 @@
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="3"/>
@@ -1115,8 +1130,8 @@
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="3"/>
@@ -1144,8 +1159,8 @@
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C16" s="3"/>
@@ -1173,8 +1188,8 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="3">
@@ -1222,8 +1237,8 @@
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C18" s="3"/>
@@ -1251,8 +1266,8 @@
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C19" s="3"/>
@@ -1280,8 +1295,8 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C20" s="3">
@@ -1329,7 +1344,7 @@
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -1351,39 +1366,39 @@
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="2" t="e">
+      <c r="C22" s="7" t="e">
         <f t="shared" ref="C22:H22" si="8">+C20/C23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D22" s="2" t="e">
+      <c r="D22" s="7" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="7">
         <f t="shared" si="8"/>
         <v>1.5203703703703704</v>
       </c>
-      <c r="F22" s="2" t="e">
+      <c r="F22" s="7" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G22" s="2" t="e">
+      <c r="G22" s="7" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H22" s="2" t="e">
+      <c r="H22" s="7" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22" s="7">
         <f>+I20/I23</f>
         <v>3.7344398340248962E-2</v>
       </c>
-      <c r="J22" s="2" t="e">
+      <c r="J22" s="7" t="e">
         <f t="shared" ref="J22" si="9">+J20/J23</f>
         <v>#DIV/0!</v>
       </c>
@@ -1400,8 +1415,8 @@
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C23" s="3"/>
@@ -1429,7 +1444,7 @@
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -1451,27 +1466,27 @@
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="7" t="e">
+      <c r="G25" s="8" t="e">
         <f t="shared" ref="G25:H29" si="10">+G3/C3-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H25" s="7" t="e">
+      <c r="H25" s="8" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="8">
         <f>+I3/E3-1</f>
         <v>-8.4349778505977357E-2</v>
       </c>
-      <c r="J25" s="7" t="e">
+      <c r="J25" s="8" t="e">
         <f>+J3/F3-1</f>
         <v>#DIV/0!</v>
       </c>
@@ -1488,27 +1503,27 @@
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="7" t="e">
+      <c r="G26" s="8" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H26" s="7" t="e">
+      <c r="H26" s="8" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="8">
         <f t="shared" ref="I26:J29" si="11">+I4/E4-1</f>
         <v>-0.12541353383458642</v>
       </c>
-      <c r="J26" s="7" t="e">
+      <c r="J26" s="8" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
@@ -1525,27 +1540,27 @@
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="7" t="e">
+      <c r="G27" s="8" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H27" s="7" t="e">
+      <c r="H27" s="8" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="8">
         <f t="shared" si="11"/>
         <v>2.6345291479820565E-2</v>
       </c>
-      <c r="J27" s="7" t="e">
+      <c r="J27" s="8" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
@@ -1562,27 +1577,27 @@
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="7" t="e">
+      <c r="G28" s="8" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H28" s="7" t="e">
+      <c r="H28" s="8" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="8">
         <f t="shared" si="11"/>
         <v>1.8691588785046731E-2</v>
       </c>
-      <c r="J28" s="7" t="e">
+      <c r="J28" s="8" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
@@ -1599,27 +1614,27 @@
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="7" t="e">
+      <c r="G29" s="8" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="7" t="e">
+      <c r="H29" s="8" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I29" s="8">
         <f t="shared" si="11"/>
         <v>-8.1032495966812612E-2</v>
       </c>
-      <c r="J29" s="7" t="e">
+      <c r="J29" s="8" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
@@ -1636,39 +1651,39 @@
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="7" t="e">
-        <f t="shared" ref="C30:I30" si="12">+C9/C7</f>
+      <c r="C30" s="8" t="e">
+        <f t="shared" ref="C30:H30" si="12">+C9/C7</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D30" s="7" t="e">
+      <c r="D30" s="8" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="8">
         <f t="shared" si="12"/>
         <v>8.3429361604056229E-2</v>
       </c>
-      <c r="F30" s="7" t="e">
+      <c r="F30" s="8" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G30" s="7" t="e">
+      <c r="G30" s="8" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="7" t="e">
+      <c r="H30" s="8" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I30" s="8">
         <f>+I9/I7</f>
         <v>6.8465666850579324E-2</v>
       </c>
-      <c r="J30" s="7" t="e">
+      <c r="J30" s="8" t="e">
         <f>+J9/J7</f>
         <v>#DIV/0!</v>
       </c>
@@ -1685,39 +1700,39 @@
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="7" t="e">
-        <f t="shared" ref="C31:I31" si="13">+C12/C7</f>
+      <c r="C31" s="8" t="e">
+        <f t="shared" ref="C31:H31" si="13">+C12/C7</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D31" s="7" t="e">
+      <c r="D31" s="8" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="8">
         <f t="shared" si="13"/>
         <v>4.2221710071445033E-2</v>
       </c>
-      <c r="F31" s="7" t="e">
+      <c r="F31" s="8" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G31" s="7" t="e">
+      <c r="G31" s="8" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="7" t="e">
+      <c r="H31" s="8" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I31" s="8">
         <f>+I12/I7</f>
         <v>-2.3574258915584089E-3</v>
       </c>
-      <c r="J31" s="7" t="e">
+      <c r="J31" s="8" t="e">
         <f>+J12/J7</f>
         <v>#DIV/0!</v>
       </c>
@@ -1734,39 +1749,39 @@
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B32" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="7" t="e">
-        <f t="shared" ref="C32:I32" si="14">+C18/C17</f>
+      <c r="C32" s="8" t="e">
+        <f t="shared" ref="C32:H32" si="14">+C18/C17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D32" s="7" t="e">
+      <c r="D32" s="8" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="8">
         <f t="shared" si="14"/>
         <v>0.20077594568380214</v>
       </c>
-      <c r="F32" s="7" t="e">
+      <c r="F32" s="8" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G32" s="7" t="e">
+      <c r="G32" s="8" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H32" s="7" t="e">
+      <c r="H32" s="8" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I32" s="8">
         <f>+I18/I17</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="J32" s="7" t="e">
+      <c r="J32" s="8" t="e">
         <f>+J18/J17</f>
         <v>#DIV/0!</v>
       </c>
@@ -1783,7 +1798,7 @@
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
     </row>
-    <row r="33" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -1805,7 +1820,7 @@
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
     </row>
-    <row r="34" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -1827,7 +1842,7 @@
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
     </row>
-    <row r="35" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -1849,7 +1864,7 @@
       <c r="U35" s="3"/>
       <c r="V35" s="3"/>
     </row>
-    <row r="36" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -1871,7 +1886,7 @@
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
     </row>
-    <row r="37" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -1893,7 +1908,7 @@
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
     </row>
-    <row r="38" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -1915,7 +1930,7 @@
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
     </row>
-    <row r="39" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -1937,7 +1952,7 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
     </row>
-    <row r="40" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -1959,7 +1974,7 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
     </row>
-    <row r="41" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -1981,7 +1996,7 @@
       <c r="U41" s="3"/>
       <c r="V41" s="3"/>
     </row>
-    <row r="42" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -2003,7 +2018,7 @@
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
     </row>
-    <row r="43" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -2025,7 +2040,7 @@
       <c r="U43" s="3"/>
       <c r="V43" s="3"/>
     </row>
-    <row r="44" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -2047,7 +2062,7 @@
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
     </row>
-    <row r="45" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -2069,7 +2084,7 @@
       <c r="U45" s="3"/>
       <c r="V45" s="3"/>
     </row>
-    <row r="46" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -2091,7 +2106,7 @@
       <c r="U46" s="3"/>
       <c r="V46" s="3"/>
     </row>
-    <row r="47" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -2113,7 +2128,7 @@
       <c r="U47" s="3"/>
       <c r="V47" s="3"/>
     </row>
-    <row r="48" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -2135,7 +2150,7 @@
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -2157,7 +2172,7 @@
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -2179,7 +2194,7 @@
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
     </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -2201,7 +2216,7 @@
       <c r="U51" s="3"/>
       <c r="V51" s="3"/>
     </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -2223,7 +2238,7 @@
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -2245,7 +2260,7 @@
       <c r="U53" s="3"/>
       <c r="V53" s="3"/>
     </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -2267,7 +2282,7 @@
       <c r="U54" s="3"/>
       <c r="V54" s="3"/>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -2289,7 +2304,7 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
     </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -2311,7 +2326,7 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
     </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -2333,7 +2348,7 @@
       <c r="U57" s="3"/>
       <c r="V57" s="3"/>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -2355,7 +2370,7 @@
       <c r="U58" s="3"/>
       <c r="V58" s="3"/>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -2377,7 +2392,7 @@
       <c r="U59" s="3"/>
       <c r="V59" s="3"/>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -2399,7 +2414,7 @@
       <c r="U60" s="3"/>
       <c r="V60" s="3"/>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -2421,7 +2436,7 @@
       <c r="U61" s="3"/>
       <c r="V61" s="3"/>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -2443,7 +2458,7 @@
       <c r="U62" s="3"/>
       <c r="V62" s="3"/>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -2465,7 +2480,7 @@
       <c r="U63" s="3"/>
       <c r="V63" s="3"/>
     </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -2487,7 +2502,7 @@
       <c r="U64" s="3"/>
       <c r="V64" s="3"/>
     </row>
-    <row r="65" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -2509,7 +2524,7 @@
       <c r="U65" s="3"/>
       <c r="V65" s="3"/>
     </row>
-    <row r="66" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -2531,7 +2546,7 @@
       <c r="U66" s="3"/>
       <c r="V66" s="3"/>
     </row>
-    <row r="67" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -2553,7 +2568,7 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
     </row>
-    <row r="68" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -2575,7 +2590,7 @@
       <c r="U68" s="3"/>
       <c r="V68" s="3"/>
     </row>
-    <row r="69" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -2597,7 +2612,7 @@
       <c r="U69" s="3"/>
       <c r="V69" s="3"/>
     </row>
-    <row r="70" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -2619,7 +2634,7 @@
       <c r="U70" s="3"/>
       <c r="V70" s="3"/>
     </row>
-    <row r="71" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -2641,7 +2656,7 @@
       <c r="U71" s="3"/>
       <c r="V71" s="3"/>
     </row>
-    <row r="72" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -2663,7 +2678,7 @@
       <c r="U72" s="3"/>
       <c r="V72" s="3"/>
     </row>
-    <row r="73" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -2685,7 +2700,7 @@
       <c r="U73" s="3"/>
       <c r="V73" s="3"/>
     </row>
-    <row r="74" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -2707,7 +2722,7 @@
       <c r="U74" s="3"/>
       <c r="V74" s="3"/>
     </row>
-    <row r="75" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -2729,7 +2744,7 @@
       <c r="U75" s="3"/>
       <c r="V75" s="3"/>
     </row>
-    <row r="76" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -2751,7 +2766,7 @@
       <c r="U76" s="3"/>
       <c r="V76" s="3"/>
     </row>
-    <row r="77" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -2773,7 +2788,7 @@
       <c r="U77" s="3"/>
       <c r="V77" s="3"/>
     </row>
-    <row r="78" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -2795,7 +2810,7 @@
       <c r="U78" s="3"/>
       <c r="V78" s="3"/>
     </row>
-    <row r="79" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -2817,7 +2832,7 @@
       <c r="U79" s="3"/>
       <c r="V79" s="3"/>
     </row>
-    <row r="80" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -2839,7 +2854,7 @@
       <c r="U80" s="3"/>
       <c r="V80" s="3"/>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -2861,7 +2876,7 @@
       <c r="U81" s="3"/>
       <c r="V81" s="3"/>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -2883,7 +2898,7 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
     </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -2905,7 +2920,7 @@
       <c r="U83" s="3"/>
       <c r="V83" s="3"/>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -2927,7 +2942,7 @@
       <c r="U84" s="3"/>
       <c r="V84" s="3"/>
     </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
@@ -2949,7 +2964,7 @@
       <c r="U85" s="3"/>
       <c r="V85" s="3"/>
     </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -2971,7 +2986,7 @@
       <c r="U86" s="3"/>
       <c r="V86" s="3"/>
     </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
@@ -2993,7 +3008,7 @@
       <c r="U87" s="3"/>
       <c r="V87" s="3"/>
     </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
@@ -3015,7 +3030,7 @@
       <c r="U88" s="3"/>
       <c r="V88" s="3"/>
     </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
@@ -3037,7 +3052,7 @@
       <c r="U89" s="3"/>
       <c r="V89" s="3"/>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
@@ -3059,7 +3074,7 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
     </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
@@ -3081,7 +3096,7 @@
       <c r="U91" s="3"/>
       <c r="V91" s="3"/>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
@@ -3103,7 +3118,7 @@
       <c r="U92" s="3"/>
       <c r="V92" s="3"/>
     </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
@@ -3125,7 +3140,7 @@
       <c r="U93" s="3"/>
       <c r="V93" s="3"/>
     </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
@@ -3147,7 +3162,7 @@
       <c r="U94" s="3"/>
       <c r="V94" s="3"/>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
@@ -3169,7 +3184,7 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
     </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
@@ -3191,7 +3206,7 @@
       <c r="U96" s="3"/>
       <c r="V96" s="3"/>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
@@ -3213,7 +3228,7 @@
       <c r="U97" s="3"/>
       <c r="V97" s="3"/>
     </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
@@ -3235,7 +3250,7 @@
       <c r="U98" s="3"/>
       <c r="V98" s="3"/>
     </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
@@ -3257,7 +3272,7 @@
       <c r="U99" s="3"/>
       <c r="V99" s="3"/>
     </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
@@ -3279,7 +3294,7 @@
       <c r="U100" s="3"/>
       <c r="V100" s="3"/>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
@@ -3301,7 +3316,7 @@
       <c r="U101" s="3"/>
       <c r="V101" s="3"/>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
@@ -3323,7 +3338,7 @@
       <c r="U102" s="3"/>
       <c r="V102" s="3"/>
     </row>
-    <row r="103" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
@@ -3345,7 +3360,7 @@
       <c r="U103" s="3"/>
       <c r="V103" s="3"/>
     </row>
-    <row r="104" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
@@ -3367,7 +3382,7 @@
       <c r="U104" s="3"/>
       <c r="V104" s="3"/>
     </row>
-    <row r="105" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
@@ -3389,7 +3404,7 @@
       <c r="U105" s="3"/>
       <c r="V105" s="3"/>
     </row>
-    <row r="106" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
@@ -3411,7 +3426,7 @@
       <c r="U106" s="3"/>
       <c r="V106" s="3"/>
     </row>
-    <row r="107" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
@@ -3433,7 +3448,7 @@
       <c r="U107" s="3"/>
       <c r="V107" s="3"/>
     </row>
-    <row r="108" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
@@ -3455,7 +3470,7 @@
       <c r="U108" s="3"/>
       <c r="V108" s="3"/>
     </row>
-    <row r="109" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
@@ -3477,7 +3492,7 @@
       <c r="U109" s="3"/>
       <c r="V109" s="3"/>
     </row>
-    <row r="110" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
@@ -3499,7 +3514,7 @@
       <c r="U110" s="3"/>
       <c r="V110" s="3"/>
     </row>
-    <row r="111" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
@@ -3521,7 +3536,7 @@
       <c r="U111" s="3"/>
       <c r="V111" s="3"/>
     </row>
-    <row r="112" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
@@ -3543,7 +3558,7 @@
       <c r="U112" s="3"/>
       <c r="V112" s="3"/>
     </row>
-    <row r="113" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
@@ -3565,7 +3580,7 @@
       <c r="U113" s="3"/>
       <c r="V113" s="3"/>
     </row>
-    <row r="114" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -3587,7 +3602,7 @@
       <c r="U114" s="3"/>
       <c r="V114" s="3"/>
     </row>
-    <row r="115" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
@@ -3609,7 +3624,7 @@
       <c r="U115" s="3"/>
       <c r="V115" s="3"/>
     </row>
-    <row r="116" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
@@ -3631,7 +3646,7 @@
       <c r="U116" s="3"/>
       <c r="V116" s="3"/>
     </row>
-    <row r="117" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
@@ -3653,7 +3668,7 @@
       <c r="U117" s="3"/>
       <c r="V117" s="3"/>
     </row>
-    <row r="118" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
@@ -3675,7 +3690,7 @@
       <c r="U118" s="3"/>
       <c r="V118" s="3"/>
     </row>
-    <row r="119" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
@@ -3697,7 +3712,7 @@
       <c r="U119" s="3"/>
       <c r="V119" s="3"/>
     </row>
-    <row r="120" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
@@ -3719,7 +3734,7 @@
       <c r="U120" s="3"/>
       <c r="V120" s="3"/>
     </row>
-    <row r="121" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -3741,7 +3756,7 @@
       <c r="U121" s="3"/>
       <c r="V121" s="3"/>
     </row>
-    <row r="122" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
@@ -3763,7 +3778,7 @@
       <c r="U122" s="3"/>
       <c r="V122" s="3"/>
     </row>
-    <row r="123" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
@@ -3785,7 +3800,7 @@
       <c r="U123" s="3"/>
       <c r="V123" s="3"/>
     </row>
-    <row r="124" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
@@ -3807,7 +3822,7 @@
       <c r="U124" s="3"/>
       <c r="V124" s="3"/>
     </row>
-    <row r="125" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
@@ -3829,7 +3844,7 @@
       <c r="U125" s="3"/>
       <c r="V125" s="3"/>
     </row>
-    <row r="126" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
@@ -3851,7 +3866,7 @@
       <c r="U126" s="3"/>
       <c r="V126" s="3"/>
     </row>
-    <row r="127" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
@@ -3873,7 +3888,7 @@
       <c r="U127" s="3"/>
       <c r="V127" s="3"/>
     </row>
-    <row r="128" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
@@ -3895,7 +3910,7 @@
       <c r="U128" s="3"/>
       <c r="V128" s="3"/>
     </row>
-    <row r="129" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
@@ -3917,7 +3932,7 @@
       <c r="U129" s="3"/>
       <c r="V129" s="3"/>
     </row>
-    <row r="130" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
@@ -3939,7 +3954,7 @@
       <c r="U130" s="3"/>
       <c r="V130" s="3"/>
     </row>
-    <row r="131" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
@@ -3961,7 +3976,7 @@
       <c r="U131" s="3"/>
       <c r="V131" s="3"/>
     </row>
-    <row r="132" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
@@ -3983,7 +3998,7 @@
       <c r="U132" s="3"/>
       <c r="V132" s="3"/>
     </row>
-    <row r="133" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
@@ -4005,7 +4020,7 @@
       <c r="U133" s="3"/>
       <c r="V133" s="3"/>
     </row>
-    <row r="134" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
@@ -4027,7 +4042,7 @@
       <c r="U134" s="3"/>
       <c r="V134" s="3"/>
     </row>
-    <row r="135" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
@@ -4049,7 +4064,7 @@
       <c r="U135" s="3"/>
       <c r="V135" s="3"/>
     </row>
-    <row r="136" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
@@ -4071,7 +4086,7 @@
       <c r="U136" s="3"/>
       <c r="V136" s="3"/>
     </row>
-    <row r="137" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
@@ -4093,7 +4108,7 @@
       <c r="U137" s="3"/>
       <c r="V137" s="3"/>
     </row>
-    <row r="138" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
@@ -4115,7 +4130,7 @@
       <c r="U138" s="3"/>
       <c r="V138" s="3"/>
     </row>
-    <row r="139" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
@@ -4137,7 +4152,7 @@
       <c r="U139" s="3"/>
       <c r="V139" s="3"/>
     </row>
-    <row r="140" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
@@ -4159,7 +4174,7 @@
       <c r="U140" s="3"/>
       <c r="V140" s="3"/>
     </row>
-    <row r="141" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
@@ -4181,7 +4196,7 @@
       <c r="U141" s="3"/>
       <c r="V141" s="3"/>
     </row>
-    <row r="142" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
@@ -4203,7 +4218,7 @@
       <c r="U142" s="3"/>
       <c r="V142" s="3"/>
     </row>
-    <row r="143" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
@@ -4225,7 +4240,7 @@
       <c r="U143" s="3"/>
       <c r="V143" s="3"/>
     </row>
-    <row r="144" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
@@ -4247,7 +4262,7 @@
       <c r="U144" s="3"/>
       <c r="V144" s="3"/>
     </row>
-    <row r="145" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
@@ -4269,7 +4284,7 @@
       <c r="U145" s="3"/>
       <c r="V145" s="3"/>
     </row>
-    <row r="146" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
@@ -4291,7 +4306,7 @@
       <c r="U146" s="3"/>
       <c r="V146" s="3"/>
     </row>
-    <row r="147" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
@@ -4313,7 +4328,7 @@
       <c r="U147" s="3"/>
       <c r="V147" s="3"/>
     </row>
-    <row r="148" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
@@ -4335,7 +4350,7 @@
       <c r="U148" s="3"/>
       <c r="V148" s="3"/>
     </row>
-    <row r="149" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
@@ -4357,7 +4372,7 @@
       <c r="U149" s="3"/>
       <c r="V149" s="3"/>
     </row>
-    <row r="150" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
@@ -4379,7 +4394,7 @@
       <c r="U150" s="3"/>
       <c r="V150" s="3"/>
     </row>
-    <row r="151" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
@@ -4401,7 +4416,7 @@
       <c r="U151" s="3"/>
       <c r="V151" s="3"/>
     </row>
-    <row r="152" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
@@ -4423,7 +4438,7 @@
       <c r="U152" s="3"/>
       <c r="V152" s="3"/>
     </row>
-    <row r="153" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
@@ -4445,7 +4460,7 @@
       <c r="U153" s="3"/>
       <c r="V153" s="3"/>
     </row>
-    <row r="154" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
@@ -4467,7 +4482,7 @@
       <c r="U154" s="3"/>
       <c r="V154" s="3"/>
     </row>
-    <row r="155" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
@@ -4489,7 +4504,7 @@
       <c r="U155" s="3"/>
       <c r="V155" s="3"/>
     </row>
-    <row r="156" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
@@ -4511,7 +4526,7 @@
       <c r="U156" s="3"/>
       <c r="V156" s="3"/>
     </row>
-    <row r="157" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -4533,7 +4548,7 @@
       <c r="U157" s="3"/>
       <c r="V157" s="3"/>
     </row>
-    <row r="158" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
@@ -4555,7 +4570,7 @@
       <c r="U158" s="3"/>
       <c r="V158" s="3"/>
     </row>
-    <row r="159" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
@@ -4577,7 +4592,7 @@
       <c r="U159" s="3"/>
       <c r="V159" s="3"/>
     </row>
-    <row r="160" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
@@ -4599,7 +4614,7 @@
       <c r="U160" s="3"/>
       <c r="V160" s="3"/>
     </row>
-    <row r="161" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
@@ -4621,7 +4636,7 @@
       <c r="U161" s="3"/>
       <c r="V161" s="3"/>
     </row>
-    <row r="162" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -4643,7 +4658,7 @@
       <c r="U162" s="3"/>
       <c r="V162" s="3"/>
     </row>
-    <row r="163" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
@@ -4665,7 +4680,7 @@
       <c r="U163" s="3"/>
       <c r="V163" s="3"/>
     </row>
-    <row r="164" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
@@ -4687,7 +4702,7 @@
       <c r="U164" s="3"/>
       <c r="V164" s="3"/>
     </row>
-    <row r="165" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
@@ -4709,7 +4724,7 @@
       <c r="U165" s="3"/>
       <c r="V165" s="3"/>
     </row>
-    <row r="166" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
@@ -4731,7 +4746,7 @@
       <c r="U166" s="3"/>
       <c r="V166" s="3"/>
     </row>
-    <row r="167" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
@@ -4753,7 +4768,7 @@
       <c r="U167" s="3"/>
       <c r="V167" s="3"/>
     </row>
-    <row r="168" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
@@ -4775,7 +4790,7 @@
       <c r="U168" s="3"/>
       <c r="V168" s="3"/>
     </row>
-    <row r="169" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
@@ -4797,7 +4812,7 @@
       <c r="U169" s="3"/>
       <c r="V169" s="3"/>
     </row>
-    <row r="170" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
@@ -4819,7 +4834,7 @@
       <c r="U170" s="3"/>
       <c r="V170" s="3"/>
     </row>
-    <row r="171" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
@@ -4841,7 +4856,7 @@
       <c r="U171" s="3"/>
       <c r="V171" s="3"/>
     </row>
-    <row r="172" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
@@ -4863,7 +4878,7 @@
       <c r="U172" s="3"/>
       <c r="V172" s="3"/>
     </row>
-    <row r="173" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
@@ -4885,7 +4900,7 @@
       <c r="U173" s="3"/>
       <c r="V173" s="3"/>
     </row>
-    <row r="174" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
@@ -4907,7 +4922,7 @@
       <c r="U174" s="3"/>
       <c r="V174" s="3"/>
     </row>
-    <row r="175" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
@@ -4929,7 +4944,7 @@
       <c r="U175" s="3"/>
       <c r="V175" s="3"/>
     </row>
-    <row r="176" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
